--- a/data/Excel/Reckoning_Esports_and_Grayfox_Esports_stats.xlsx
+++ b/data/Excel/Reckoning_Esports_and_Grayfox_Esports_stats.xlsx
@@ -460,6 +460,8 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -470,32 +472,32 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
+          <t>Bind</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>Breeze</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>Icebox</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Lotus</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>Split</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Sunset</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>Bind</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Lotus</t>
         </is>
       </c>
     </row>
@@ -570,6 +572,16 @@
           <t>RND</t>
         </is>
       </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>KPR</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>RND</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -623,16 +635,22 @@
         </is>
       </c>
       <c r="K5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -687,16 +705,22 @@
         </is>
       </c>
       <c r="K6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -751,16 +775,22 @@
         </is>
       </c>
       <c r="K7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -815,16 +845,22 @@
         </is>
       </c>
       <c r="K8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -879,16 +915,22 @@
         </is>
       </c>
       <c r="K9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -944,22 +986,28 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>106</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1064,28 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>106</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1088,22 +1142,28 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="P12" s="3" t="inlineStr">
         <is>
           <t>106</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1160,22 +1220,28 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="P13" s="3" t="inlineStr">
         <is>
           <t>106</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1232,22 +1298,28 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>106</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
         </is>
       </c>
     </row>
@@ -1263,16 +1335,16 @@
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
@@ -1285,22 +1357,28 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
